--- a/Scenario.xlsx
+++ b/Scenario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110C69BA-677A-4C14-BF7D-17F9829793CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C706B-C6D5-4C57-99A0-225DAD49834F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
   <si>
     <t>Benckmark4</t>
   </si>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reset explore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>change when
 poolVarLossCritic[-1] &lt; 10
 and
@@ -260,6 +256,18 @@
   <si>
     <t>self.SINR,
 self.clustering_state.flatten(),                    self.caching_state.flatten(),                    self.reqStatistic_norm.flatten(),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset explore noiseSigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA out of memory. Tried to allocate 872.00 MiB (GPU 0; 10.00 GiB total capacity; 6.66 GiB already allocated; 544.80 MiB free; 6.68 GiB reserved in total by PyTorch)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,14 +380,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4042,10 +4050,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4395,10 +4403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001419A-D9D1-4119-A887-F7E3CA3B444F}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4406,12 +4414,14 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.85546875" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="49.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4434,7 +4444,7 @@
         <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
         <v>35</v>
@@ -4442,9 +4452,11 @@
       <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4463,20 +4475,20 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40</v>
       </c>
@@ -4494,11 +4506,41 @@
       </c>
       <c r="F3" t="s">
         <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Scenario.xlsx
+++ b/Scenario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C706B-C6D5-4C57-99A0-225DAD49834F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98CBBF4-F1A9-43D8-B172-AAD12B2F2332}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
   <si>
     <t>Benckmark4</t>
   </si>
@@ -263,11 +263,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EE</t>
+    <t>CUDA out of memory. Tried to allocate 872.00 MiB (GPU 0; 10.00 GiB total capacity; 6.66 GiB already allocated; 544.80 MiB free; 6.68 GiB reserved in total by PyTorch)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CUDA out of memory. Tried to allocate 872.00 MiB (GPU 0; 10.00 GiB total capacity; 6.66 GiB already allocated; 544.80 MiB free; 6.68 GiB reserved in total by PyTorch)</t>
+    <t>Actor Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critic Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor(
+  (fc1): Linear(in_features=2910, out_features=2655, bias=True)
+  (bn1): BatchNorm1d(2655, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (ln1): LayerNorm((2655,), eps=1e-05, elementwise_affine=True)
+  (fc2): Linear(in_features=2655, out_features=2400, bias=True)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor(
+  (fc1): Linear(in_features=2910, out_features=5820, bias=True)
+  (bn1): BatchNorm1d(5820, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (ln1): LayerNorm((5820,), eps=1e-05, elementwise_affine=True)
+  (fc2): Linear(in_features=5820, out_features=5820, bias=True)
+  (bn2): BatchNorm1d(5820, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (ln2): LayerNorm((5820,), eps=1e-05, elementwise_affine=True)
+  (fc3): Linear(in_features=5820, out_features=2400, bias=True)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critic(
+  (fc1): Linear(in_features=2910, out_features=5820, bias=True)
+  (bn1): BatchNorm1d(5820, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (ln1): LayerNorm((5820,), eps=1e-05, elementwise_affine=True)
+  (fc2): Linear(in_features=8220, out_features=4800, bias=True)
+  (fc3): Linear(in_features=4800, out_features=1, bias=True)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR+POP EE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4403,25 +4450,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001419A-D9D1-4119-A887-F7E3CA3B444F}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="49.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="90.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+    <col min="13" max="14" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="49.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4435,28 +4484,37 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4469,26 +4527,26 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40</v>
       </c>
@@ -4501,26 +4559,26 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -4533,8 +4591,43 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>59</v>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="126" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <v>28.488359462106601</v>
       </c>
     </row>
   </sheetData>

--- a/Scenario.xlsx
+++ b/Scenario.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98CBBF4-F1A9-43D8-B172-AAD12B2F2332}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7FD0CC-259E-4AA3-8750-CB5BF2B4E1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="PK" sheetId="7" r:id="rId4"/>
     <sheet name="10.4.L.5.2" sheetId="6" r:id="rId5"/>
     <sheet name="40.10.L.5.2" sheetId="4" r:id="rId6"/>
-    <sheet name="工作表2" sheetId="9" r:id="rId7"/>
+    <sheet name="40.10.50.5" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Benckmark4</t>
   </si>
@@ -217,12 +217,6 @@
   <si>
     <t>Benchmark(知道越多越好)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L=</t>
-  </si>
-  <si>
-    <t>,nctc_EE=</t>
   </si>
   <si>
     <t>fixed</t>
@@ -317,12 +311,40 @@
     <t>SNR+POP EE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>try brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改變 Actor層數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snrCL_Throughput_Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snrCL_popCA_EE_Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case: 40.10.50.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +371,12 @@
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC586C0"/>
+      <name val="Var(--monaco-monospace-font)"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -418,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -435,6 +463,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4078,14 +4109,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4093,7 +4124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4102,7 +4133,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4113,7 +4144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4124,7 +4155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4135,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4146,7 +4177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4157,7 +4188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4185,7 +4216,7 @@
       <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -4199,7 +4230,7 @@
     <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="31.5">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4234,7 +4265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="78.75">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4254,7 +4285,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -4269,7 +4300,7 @@
         <v>142.16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="110.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4304,7 +4335,7 @@
         <v>142.16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="78.75">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4339,7 +4370,7 @@
         <v>142.16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="94.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4374,7 +4405,7 @@
         <v>142.16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="78.75">
       <c r="A6">
         <v>40</v>
       </c>
@@ -4403,7 +4434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>400</v>
       </c>
@@ -4429,9 +4460,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -4450,27 +4481,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001419A-D9D1-4119-A887-F7E3CA3B444F}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="5" width="90.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" customWidth="1"/>
-    <col min="13" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="49.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="90.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="14" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="49.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4484,37 +4516,40 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="63">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4527,26 +4562,26 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
       <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" ht="63">
       <c r="A3">
         <v>40</v>
       </c>
@@ -4559,26 +4594,26 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" ht="141.75">
       <c r="A4">
         <v>100</v>
       </c>
@@ -4591,20 +4626,20 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="126" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="126">
       <c r="A5">
         <v>100</v>
       </c>
@@ -4617,17 +4652,51 @@
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5">
+        <v>28.488359462106601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="141.75">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N5">
-        <v>28.488359462106601</v>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="126">
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4645,13 +4714,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4659,7 +4728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4667,7 +4736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4675,7 +4744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="63">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4683,12 +4752,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>46</v>
       </c>
@@ -4708,14 +4777,14 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4729,7 +4798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4743,7 +4812,7 @@
         <v>254.48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4757,7 +4826,7 @@
         <v>254.48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4771,7 +4840,7 @@
         <v>254.48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4785,7 +4854,7 @@
         <v>254.48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4799,7 +4868,7 @@
         <v>254.48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4813,7 +4882,7 @@
         <v>254.48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4827,7 +4896,7 @@
         <v>254.48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4841,7 +4910,7 @@
         <v>254.48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4855,7 +4924,7 @@
         <v>254.48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4886,14 +4955,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4907,7 +4976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4921,7 +4990,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4935,7 +5004,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4949,7 +5018,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4963,7 +5032,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4977,7 +5046,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4991,7 +5060,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5005,7 +5074,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5019,7 +5088,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5033,7 +5102,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5047,7 +5116,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5061,7 +5130,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5075,7 +5144,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5089,7 +5158,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5103,7 +5172,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5117,7 +5186,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5131,7 +5200,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5145,7 +5214,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5159,7 +5228,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5173,7 +5242,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5187,7 +5256,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5201,7 +5270,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5215,7 +5284,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5229,7 +5298,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5243,7 +5312,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5257,7 +5326,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5271,7 +5340,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5285,7 +5354,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5299,7 +5368,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5313,7 +5382,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5327,7 +5396,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5341,7 +5410,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5355,7 +5424,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5369,7 +5438,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5383,7 +5452,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5397,7 +5466,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5411,7 +5480,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5425,7 +5494,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5439,7 +5508,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5453,7 +5522,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5477,579 +5546,572 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADC8946-7C3E-4BA7-848E-892B26A3208D}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1">
-        <v>50.278647507760098</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
+      <c r="B3" s="3">
+        <v>12.252001927588701</v>
+      </c>
+      <c r="C3">
+        <v>37.736165936973201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2">
-        <v>30.844468358815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3">
+      <c r="B4">
+        <v>6.2503021429409902</v>
+      </c>
+      <c r="C4">
+        <v>38.439358179087101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3">
-        <v>9.5973953605985205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
+      <c r="B5">
+        <v>4.3136245267529398</v>
+      </c>
+      <c r="C5">
+        <v>39.728481891394502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4">
-        <v>7.9060671240462099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
+      <c r="B6">
+        <v>3.1805138580093</v>
+      </c>
+      <c r="C6">
+        <v>37.402842970189397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5">
-        <v>6.8843306684492704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
+      <c r="B7">
+        <v>2.5298200793080001</v>
+      </c>
+      <c r="C7">
+        <v>39.920560851480197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>6.6817721569403599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
+      <c r="B8">
+        <v>2.1329056660174501</v>
+      </c>
+      <c r="C8">
+        <v>42.252861243805803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>6.1665863354616004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8">
+      <c r="B9">
+        <v>1.7385031742489001</v>
+      </c>
+      <c r="C9">
+        <v>42.2977822294758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>5.0150188549283996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9">
+      <c r="B10">
+        <v>1.4927650173243701</v>
+      </c>
+      <c r="C10">
+        <v>43.782797958123901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>4.6091287345757399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10">
+      <c r="B11">
+        <v>1.34992556526436</v>
+      </c>
+      <c r="C11">
+        <v>44.331555563281597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10">
-        <v>4.0534044602129002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11">
+      <c r="B12">
+        <v>1.16688114025595</v>
+      </c>
+      <c r="C12">
+        <v>43.583010588559802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11">
-        <v>3.6945347491799199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12">
+      <c r="B13">
+        <v>1.06609707879412</v>
+      </c>
+      <c r="C13">
+        <v>43.5607266395278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12">
-        <v>3.29529334894867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13">
+      <c r="B14">
+        <v>1.04105794607053</v>
+      </c>
+      <c r="C14">
+        <v>45.150683121078899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13">
-        <v>3.0518494586457199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+      <c r="B15">
+        <v>0.95772941001708001</v>
+      </c>
+      <c r="C15">
+        <v>45.367642152508999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14">
-        <v>2.93814500558697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15">
+      <c r="B16">
+        <v>0.89325380392897102</v>
+      </c>
+      <c r="C16">
+        <v>45.448753543906001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>2.83548645020378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
+      <c r="B17">
+        <v>0.82826795419384802</v>
+      </c>
+      <c r="C17">
+        <v>45.869479303255297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16">
-        <v>2.8626671529445198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17">
+      <c r="B18">
+        <v>0.76708647509759198</v>
+      </c>
+      <c r="C18">
+        <v>45.933138128843801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17">
-        <v>2.8101611903468799</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18">
+      <c r="B19">
+        <v>0.73216345810001104</v>
+      </c>
+      <c r="C19">
+        <v>46.038438245328699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>2.6759108985506801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19">
+      <c r="B20">
+        <v>0.70606008907574702</v>
+      </c>
+      <c r="C20">
+        <v>46.169269224663097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19">
-        <v>2.5500580594208802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
+      <c r="B21">
+        <v>0.68103729045100003</v>
+      </c>
+      <c r="C21">
+        <v>46.2356216487183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20">
-        <v>2.55245238519946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21">
+      <c r="B22">
+        <v>0.63966891802284898</v>
+      </c>
+      <c r="C22">
+        <v>46.305632975674001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21">
-        <v>2.4760421566603101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22">
+      <c r="B23">
+        <v>0.61073540578926</v>
+      </c>
+      <c r="C23">
+        <v>46.348709945346897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22">
-        <v>2.3703869528026198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23">
+      <c r="B24">
+        <v>0.58770154468833802</v>
+      </c>
+      <c r="C24">
+        <v>46.363774860463003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23">
-        <v>2.3065365505172601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24">
+      <c r="B25">
+        <v>0.54633539311958701</v>
+      </c>
+      <c r="C25">
+        <v>46.378411521921699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24">
-        <v>2.0992146151880702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25">
+      <c r="B26">
+        <v>0.52230647500859495</v>
+      </c>
+      <c r="C26">
+        <v>46.427822563513999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25">
-        <v>2.0733585207937399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26">
+      <c r="B27">
+        <v>0.50207781103307303</v>
+      </c>
+      <c r="C27">
+        <v>46.391989739456001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26">
-        <v>1.9978811459824</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27">
+      <c r="B28">
+        <v>0.474279672406967</v>
+      </c>
+      <c r="C28">
+        <v>46.4319799286421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27">
-        <v>1.8606218801264001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28">
+      <c r="B29">
+        <v>0.45607600617466698</v>
+      </c>
+      <c r="C29">
+        <v>46.474145029198603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28">
-        <v>1.79916853578386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29">
+      <c r="B30">
+        <v>0.43693832512751601</v>
+      </c>
+      <c r="C30">
+        <v>46.490237793567701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29">
-        <v>1.68679466796924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30">
+      <c r="B31">
+        <v>0.42701527040890402</v>
+      </c>
+      <c r="C31">
+        <v>46.501962947529698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30">
-        <v>1.6196532427019501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31">
+      <c r="B32">
+        <v>0.41204120249200699</v>
+      </c>
+      <c r="C32">
+        <v>46.519451761347597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31">
-        <v>1.5728308158192801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32">
+      <c r="B33">
+        <v>0.40152374519666401</v>
+      </c>
+      <c r="C33">
+        <v>46.536602068293398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32">
-        <v>1.55854916737972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33">
+      <c r="B34">
+        <v>0.386589274353211</v>
+      </c>
+      <c r="C34">
+        <v>46.545348632126696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33">
-        <v>1.5150528169355599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34">
+      <c r="B35">
+        <v>0.371215629554352</v>
+      </c>
+      <c r="C35">
+        <v>46.550439946115802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34">
-        <v>1.46063052381549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35">
+      <c r="B36">
+        <v>0.35160883929083803</v>
+      </c>
+      <c r="C36">
+        <v>46.553010322106999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35">
-        <v>1.4349771102779501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36">
+      <c r="B37">
+        <v>0.34007316803676202</v>
+      </c>
+      <c r="C37">
+        <v>46.556016704232697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36">
-        <v>1.39793543685213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37">
+      <c r="B38">
+        <v>0.33164013524874802</v>
+      </c>
+      <c r="C38">
+        <v>46.562274988924301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37">
-        <v>1.36265366764205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38">
+      <c r="B39">
+        <v>0.31699884921011801</v>
+      </c>
+      <c r="C39">
+        <v>46.567130948966302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38">
-        <v>1.3401173128766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
+      <c r="B40">
+        <v>0.304571848663726</v>
+      </c>
+      <c r="C40">
+        <v>46.569035660683802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>1.31831042772499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40">
+      <c r="B41">
+        <v>0.29400702526402001</v>
+      </c>
+      <c r="C41">
+        <v>46.570712801820797</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40">
-        <v>1.3076775245217001</v>
-      </c>
+      <c r="B42" s="3">
+        <v>0.28327697460797602</v>
+      </c>
+      <c r="C42" s="3">
+        <v>46.570734625551303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scenario.xlsx
+++ b/Scenario.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7FD0CC-259E-4AA3-8750-CB5BF2B4E1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B6338-E562-4EDE-B7D2-962981BC3A34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark" sheetId="1" r:id="rId1"/>
@@ -26,35 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>Benckmark4</t>
   </si>
   <si>
-    <t>DDPG_CL</t>
-  </si>
-  <si>
-    <t>Pop-CL</t>
-  </si>
-  <si>
-    <t>Benckmark5</t>
-  </si>
-  <si>
-    <t>Near-CL</t>
-  </si>
-  <si>
-    <t>DDPG_CA</t>
-  </si>
-  <si>
-    <t>Benckmark6</t>
-  </si>
-  <si>
-    <t>Benckmark7</t>
-  </si>
-  <si>
-    <t>Brute Force-CA</t>
-  </si>
-  <si>
     <t>Benchmark1</t>
   </si>
   <si>
@@ -64,12 +40,6 @@
     <t>Benchmark2</t>
   </si>
   <si>
-    <t>Benckmark3</t>
-  </si>
-  <si>
-    <t>Brute Force-CL</t>
-  </si>
-  <si>
     <t>Clustering Policy</t>
   </si>
   <si>
@@ -102,21 +72,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Optimal EE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Observation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[s2]
-g.real
-g.imag
-clustering_state
-caching_state
-reqStatistic_norm
-Req</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,23 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3]
-clustering_state
-caching_state
-reqStatistic_norm
-Req</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RL Best EE
-in EV phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Near-CL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,19 +105,6 @@
   </si>
   <si>
     <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[s1]
-SINR
-clustering_state
-caching_state
-reqStatistic_norm
-Req</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change/30 Itr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,10 +146,6 @@
   </si>
   <si>
     <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Makov</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,6 +259,82 @@
   </si>
   <si>
     <t>case: 40.10.50.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benckmark3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR CL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POP CA 
+local cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POP CA 
+all AP the same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDPG_CL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDPG_CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[s2]***
+g.real
+g.imag
+clustering_state
+caching_state
+reqStatistic_norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL limited Connection?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulimited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDPG 1act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDPG 2act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM2
+L=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,14 +456,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="47" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="47" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3349,317 +3347,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>704849</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D13F19A-8E15-4BBE-B298-A3F5FF5433E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7639050" y="28574"/>
-          <a:ext cx="4635500" cy="3476625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>585786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>413397</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>17153</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="圖片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B951B361-3002-45D2-A3EC-264B89E8E224}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7629525" y="3386136"/>
-          <a:ext cx="4575822" cy="3431867"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線單箭頭接點 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086462BD-3516-4487-8A6F-A711B251C628}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6743700" y="5019675"/>
-          <a:ext cx="923925" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>962025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線單箭頭接點 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60BAA53-7604-46B3-A6D7-635DDF463BCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="1362075"/>
-          <a:ext cx="923925" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>528636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="圖片 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDD4880-B41A-4B9A-8595-CA7F860E70FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12182474" y="3328986"/>
-          <a:ext cx="4489451" cy="3367089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>500063</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="圖片 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FB31F7-CBF4-4553-AA12-726D930B8301}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12280900" y="66675"/>
-          <a:ext cx="4311650" cy="3233738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3799,7 +3486,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4103,10 +3790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4118,90 +3805,72 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="78.75">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="94.5">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4210,10 +3879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2986BB-8F33-4471-B2CE-FA432FAA1E32}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4226,46 +3895,59 @@
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
+    <row r="1" spans="1:15" ht="31.5">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="78.75">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="94.5">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4279,28 +3961,26 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2">
-        <v>141.21</v>
-      </c>
-      <c r="K2">
-        <v>142.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="110.25">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="94.5">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4313,99 +3993,90 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="94.5">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="94.5">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3">
-        <v>132.91999999999999</v>
-      </c>
-      <c r="K3">
-        <v>142.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="78.75">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4">
-        <v>132.91999999999999</v>
-      </c>
-      <c r="K4">
-        <v>142.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="94.5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>38</v>
+      <c r="H5" t="s">
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5">
-        <v>127.57</v>
-      </c>
-      <c r="K5">
-        <v>142.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="78.75">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="94.5">
       <c r="A6">
         <v>40</v>
       </c>
@@ -4413,69 +4084,34 @@
         <v>10</v>
       </c>
       <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
+      <c r="E6" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>400</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4504,49 +4140,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="63">
@@ -4563,22 +4199,22 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="63">
@@ -4595,22 +4231,22 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="141.75">
@@ -4627,16 +4263,16 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="126">
@@ -4653,13 +4289,13 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="O5">
         <v>28.488359462106601</v>
@@ -4679,24 +4315,24 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="126">
       <c r="E7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4722,44 +4358,44 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="63">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4786,16 +4422,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4964,16 +4600,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5548,7 +5184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADC8946-7C3E-4BA7-848E-892B26A3208D}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -5562,18 +5198,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6017,97 +5653,97 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="B47" s="7"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="B48" s="7"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="7"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="7"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="7"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="7"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="7"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="7"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="7"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="7"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="7"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="7"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="7"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="7"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="7"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="7"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="7"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="7"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="7"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="7"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="7"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="7"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="7"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="7"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="7"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="7"/>
+      <c r="B77" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
